--- a/others/1101抢购参考.xlsx
+++ b/others/1101抢购参考.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>货号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,14 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DJ2994-100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJ35郭艾伦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CW2459-100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +181,30 @@
   </si>
   <si>
     <t>丹宁AJ1 LOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA8006-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泼墨AJ1 MID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA8010-400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白蓝AJ1 MID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC4099-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂鸦AJ1 MID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,8 +213,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="185" formatCode="0.00_ "/>
-    <numFmt numFmtId="187" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -267,13 +283,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -598,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -651,29 +667,29 @@
         <v>10</v>
       </c>
       <c r="E2" s="5">
-        <f>IF(D2="Y",IF(H2&gt;=3,C2*H2*0.7,IF(H2&gt;=2,C2*H2*0.8,C2*H2)),C2*H2)</f>
+        <f t="shared" ref="E2:E13" si="0">IF(D2="Y",IF(H2&gt;=3,C2*H2*0.7,IF(H2&gt;=2,C2*H2*0.8,C2*H2)),C2*H2)</f>
         <v>3996</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="5">
-        <f>IF(F2="Y",IF(E2&gt;=2000,E2-400,IF(E2&gt;=1400,E2-200,IF(E2&gt;=1100,E2-120,IF(E2&gt;=800,E2-70,IF(E2&gt;=500,E2-40,E2))))),E2)</f>
+        <f t="shared" ref="G2:G13" si="1">IF(F2="Y",IF(E2&gt;=2000,E2-400,IF(E2&gt;=1400,E2-200,IF(E2&gt;=1100,E2-120,IF(E2&gt;=800,E2-70,IF(E2&gt;=500,E2-40,E2))))),E2)</f>
         <v>3596</v>
       </c>
       <c r="H2" s="1">
         <v>4</v>
       </c>
       <c r="I2" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" ref="I2:I16" si="2">$L$2/$M$2</f>
         <v>0.94339622641509435</v>
       </c>
       <c r="J2" s="3">
-        <f>G2*I2</f>
+        <f t="shared" ref="J2:J13" si="3">G2*I2</f>
         <v>3392.4528301886794</v>
       </c>
       <c r="K2" s="4">
-        <f>J2/H2</f>
+        <f t="shared" ref="K2:K13" si="4">J2/H2</f>
         <v>848.11320754716985</v>
       </c>
       <c r="L2" s="1">
@@ -700,29 +716,29 @@
         <v>10</v>
       </c>
       <c r="E3" s="5">
-        <f>IF(D3="Y",IF(H3&gt;=3,C3*H3*0.7,IF(H3&gt;=2,C3*H3*0.8,C3*H3)),C3*H3)</f>
+        <f t="shared" si="0"/>
         <v>2338</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="5">
-        <f>IF(F3="Y",IF(E3&gt;=2000,E3-400,IF(E3&gt;=1400,E3-200,IF(E3&gt;=1100,E3-120,IF(E3&gt;=800,E3-70,IF(E3&gt;=500,E3-40,E3))))),E3)</f>
+        <f t="shared" si="1"/>
         <v>1938</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J3" s="3">
-        <f>G3*I3</f>
+        <f t="shared" si="3"/>
         <v>1828.3018867924529</v>
       </c>
       <c r="K3" s="4">
-        <f>J3/H3</f>
+        <f t="shared" si="4"/>
         <v>914.15094339622647</v>
       </c>
       <c r="L3" s="1">
@@ -749,29 +765,29 @@
         <v>8</v>
       </c>
       <c r="E4" s="5">
-        <f>IF(D4="Y",IF(H4&gt;=3,C4*H4*0.7,IF(H4&gt;=2,C4*H4*0.8,C4*H4)),C4*H4)</f>
+        <f t="shared" si="0"/>
         <v>2937.8999999999996</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="5">
-        <f>IF(F4="Y",IF(E4&gt;=2000,E4-400,IF(E4&gt;=1400,E4-200,IF(E4&gt;=1100,E4-120,IF(E4&gt;=800,E4-70,IF(E4&gt;=500,E4-40,E4))))),E4)</f>
+        <f t="shared" si="1"/>
         <v>2537.8999999999996</v>
       </c>
       <c r="H4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J4" s="3">
-        <f>G4*I4</f>
+        <f t="shared" si="3"/>
         <v>2394.2452830188677</v>
       </c>
       <c r="K4" s="4">
-        <f>J4/H4</f>
+        <f t="shared" si="4"/>
         <v>798.08176100628918</v>
       </c>
       <c r="L4" s="1">
@@ -792,36 +808,36 @@
         <v>24</v>
       </c>
       <c r="C5" s="1">
-        <v>999</v>
+        <v>699</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="5">
-        <f>IF(D5="Y",IF(H5&gt;=3,C5*H5*0.7,IF(H5&gt;=2,C5*H5*0.8,C5*H5)),C5*H5)</f>
-        <v>2997</v>
+        <f t="shared" si="0"/>
+        <v>2097</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="5">
-        <f>IF(F5="Y",IF(E5&gt;=2000,E5-400,IF(E5&gt;=1400,E5-200,IF(E5&gt;=1100,E5-120,IF(E5&gt;=800,E5-70,IF(E5&gt;=500,E5-40,E5))))),E5)</f>
-        <v>2597</v>
+        <f t="shared" si="1"/>
+        <v>1697</v>
       </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
       <c r="I5" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J5" s="3">
-        <f>G5*I5</f>
-        <v>2450</v>
+        <f t="shared" si="3"/>
+        <v>1600.9433962264152</v>
       </c>
       <c r="K5" s="4">
-        <f>J5/H5</f>
-        <v>816.66666666666663</v>
+        <f t="shared" si="4"/>
+        <v>533.64779874213843</v>
       </c>
       <c r="L5" s="1">
         <v>5000</v>
@@ -841,36 +857,36 @@
         <v>26</v>
       </c>
       <c r="C6" s="1">
-        <v>699</v>
+        <v>1399</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5">
-        <f>IF(D6="Y",IF(H6&gt;=3,C6*H6*0.7,IF(H6&gt;=2,C6*H6*0.8,C6*H6)),C6*H6)</f>
-        <v>2097</v>
+        <f t="shared" si="0"/>
+        <v>2937.8999999999996</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="5">
-        <f>IF(F6="Y",IF(E6&gt;=2000,E6-400,IF(E6&gt;=1400,E6-200,IF(E6&gt;=1100,E6-120,IF(E6&gt;=800,E6-70,IF(E6&gt;=500,E6-40,E6))))),E6)</f>
-        <v>1697</v>
+        <f t="shared" si="1"/>
+        <v>2537.8999999999996</v>
       </c>
       <c r="H6" s="1">
         <v>3</v>
       </c>
       <c r="I6" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J6" s="3">
-        <f>G6*I6</f>
-        <v>1600.9433962264152</v>
+        <f t="shared" si="3"/>
+        <v>2394.2452830188677</v>
       </c>
       <c r="K6" s="4">
-        <f>J6/H6</f>
-        <v>533.64779874213843</v>
+        <f t="shared" si="4"/>
+        <v>798.08176100628918</v>
       </c>
       <c r="L6" s="1">
         <v>5000</v>
@@ -896,29 +912,29 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <f>IF(D7="Y",IF(H7&gt;=3,C7*H7*0.7,IF(H7&gt;=2,C7*H7*0.8,C7*H7)),C7*H7)</f>
+        <f t="shared" si="0"/>
         <v>2937.8999999999996</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="5">
-        <f>IF(F7="Y",IF(E7&gt;=2000,E7-400,IF(E7&gt;=1400,E7-200,IF(E7&gt;=1100,E7-120,IF(E7&gt;=800,E7-70,IF(E7&gt;=500,E7-40,E7))))),E7)</f>
+        <f t="shared" si="1"/>
         <v>2537.8999999999996</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
       <c r="I7" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J7" s="3">
-        <f>G7*I7</f>
+        <f t="shared" si="3"/>
         <v>2394.2452830188677</v>
       </c>
       <c r="K7" s="4">
-        <f>J7/H7</f>
+        <f t="shared" si="4"/>
         <v>798.08176100628918</v>
       </c>
       <c r="L7" s="1">
@@ -939,36 +955,36 @@
         <v>30</v>
       </c>
       <c r="C8" s="1">
-        <v>1399</v>
+        <v>1199</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="5">
-        <f>IF(D8="Y",IF(H8&gt;=3,C8*H8*0.7,IF(H8&gt;=2,C8*H8*0.8,C8*H8)),C8*H8)</f>
-        <v>2937.8999999999996</v>
+        <f t="shared" si="0"/>
+        <v>2517.8999999999996</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="5">
-        <f>IF(F8="Y",IF(E8&gt;=2000,E8-400,IF(E8&gt;=1400,E8-200,IF(E8&gt;=1100,E8-120,IF(E8&gt;=800,E8-70,IF(E8&gt;=500,E8-40,E8))))),E8)</f>
-        <v>2537.8999999999996</v>
+        <f t="shared" si="1"/>
+        <v>2117.8999999999996</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
       </c>
       <c r="I8" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J8" s="3">
-        <f>G8*I8</f>
-        <v>2394.2452830188677</v>
+        <f t="shared" si="3"/>
+        <v>1998.018867924528</v>
       </c>
       <c r="K8" s="4">
-        <f>J8/H8</f>
-        <v>798.08176100628918</v>
+        <f t="shared" si="4"/>
+        <v>666.00628930817595</v>
       </c>
       <c r="L8" s="1">
         <v>5000</v>
@@ -988,36 +1004,36 @@
         <v>32</v>
       </c>
       <c r="C9" s="1">
-        <v>1199</v>
+        <v>999</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="5">
-        <f>IF(D9="Y",IF(H9&gt;=3,C9*H9*0.7,IF(H9&gt;=2,C9*H9*0.8,C9*H9)),C9*H9)</f>
-        <v>2517.8999999999996</v>
+        <f t="shared" si="0"/>
+        <v>2097.9</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="5">
-        <f>IF(F9="Y",IF(E9&gt;=2000,E9-400,IF(E9&gt;=1400,E9-200,IF(E9&gt;=1100,E9-120,IF(E9&gt;=800,E9-70,IF(E9&gt;=500,E9-40,E9))))),E9)</f>
-        <v>2117.8999999999996</v>
+        <f t="shared" si="1"/>
+        <v>1697.9</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
       </c>
       <c r="I9" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J9" s="3">
-        <f>G9*I9</f>
-        <v>1998.018867924528</v>
+        <f t="shared" si="3"/>
+        <v>1601.7924528301887</v>
       </c>
       <c r="K9" s="4">
-        <f>J9/H9</f>
-        <v>666.00628930817595</v>
+        <f t="shared" si="4"/>
+        <v>533.93081761006295</v>
       </c>
       <c r="L9" s="1">
         <v>5000</v>
@@ -1043,29 +1059,29 @@
         <v>8</v>
       </c>
       <c r="E10" s="5">
-        <f>IF(D10="Y",IF(H10&gt;=3,C10*H10*0.7,IF(H10&gt;=2,C10*H10*0.8,C10*H10)),C10*H10)</f>
+        <f t="shared" si="0"/>
         <v>2097.9</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="5">
-        <f>IF(F10="Y",IF(E10&gt;=2000,E10-400,IF(E10&gt;=1400,E10-200,IF(E10&gt;=1100,E10-120,IF(E10&gt;=800,E10-70,IF(E10&gt;=500,E10-40,E10))))),E10)</f>
+        <f t="shared" si="1"/>
         <v>1697.9</v>
       </c>
       <c r="H10" s="1">
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J10" s="3">
-        <f>G10*I10</f>
+        <f t="shared" si="3"/>
         <v>1601.7924528301887</v>
       </c>
       <c r="K10" s="4">
-        <f>J10/H10</f>
+        <f t="shared" si="4"/>
         <v>533.93081761006295</v>
       </c>
       <c r="L10" s="1">
@@ -1083,39 +1099,39 @@
         <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1">
-        <v>999</v>
+        <v>969</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="5">
-        <f>IF(D11="Y",IF(H11&gt;=3,C11*H11*0.7,IF(H11&gt;=2,C11*H11*0.8,C11*H11)),C11*H11)</f>
-        <v>2097.9</v>
+        <f t="shared" si="0"/>
+        <v>2034.8999999999999</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="5">
-        <f>IF(F11="Y",IF(E11&gt;=2000,E11-400,IF(E11&gt;=1400,E11-200,IF(E11&gt;=1100,E11-120,IF(E11&gt;=800,E11-70,IF(E11&gt;=500,E11-40,E11))))),E11)</f>
-        <v>1697.9</v>
+        <f t="shared" si="1"/>
+        <v>1634.8999999999999</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
       </c>
       <c r="I11" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J11" s="3">
-        <f>G11*I11</f>
-        <v>1601.7924528301887</v>
+        <f t="shared" si="3"/>
+        <v>1542.3584905660375</v>
       </c>
       <c r="K11" s="4">
-        <f>J11/H11</f>
-        <v>533.93081761006295</v>
+        <f t="shared" si="4"/>
+        <v>514.1194968553458</v>
       </c>
       <c r="L11" s="1">
         <v>5000</v>
@@ -1129,42 +1145,42 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1">
         <v>969</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" s="5">
-        <f>IF(D12="Y",IF(H12&gt;=3,C12*H12*0.7,IF(H12&gt;=2,C12*H12*0.8,C12*H12)),C12*H12)</f>
-        <v>2034.8999999999999</v>
+        <f t="shared" si="0"/>
+        <v>2907</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="5">
-        <f>IF(F12="Y",IF(E12&gt;=2000,E12-400,IF(E12&gt;=1400,E12-200,IF(E12&gt;=1100,E12-120,IF(E12&gt;=800,E12-70,IF(E12&gt;=500,E12-40,E12))))),E12)</f>
-        <v>1634.8999999999999</v>
+        <f t="shared" si="1"/>
+        <v>2507</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J12" s="3">
-        <f>G12*I12</f>
-        <v>1542.3584905660375</v>
+        <f t="shared" si="3"/>
+        <v>2365.0943396226417</v>
       </c>
       <c r="K12" s="4">
-        <f>J12/H12</f>
-        <v>514.1194968553458</v>
+        <f t="shared" si="4"/>
+        <v>788.36477987421392</v>
       </c>
       <c r="L12" s="1">
         <v>5000</v>
@@ -1178,42 +1194,42 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1">
-        <v>969</v>
+        <v>849</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
-        <f>IF(D13="Y",IF(H13&gt;=3,C13*H13*0.7,IF(H13&gt;=2,C13*H13*0.8,C13*H13)),C13*H13)</f>
-        <v>2907</v>
+        <f t="shared" si="0"/>
+        <v>1782.8999999999999</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="5">
-        <f>IF(F13="Y",IF(E13&gt;=2000,E13-400,IF(E13&gt;=1400,E13-200,IF(E13&gt;=1100,E13-120,IF(E13&gt;=800,E13-70,IF(E13&gt;=500,E13-40,E13))))),E13)</f>
-        <v>2507</v>
+        <f t="shared" si="1"/>
+        <v>1582.8999999999999</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
       </c>
       <c r="I13" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J13" s="3">
-        <f>G13*I13</f>
-        <v>2365.0943396226417</v>
+        <f t="shared" si="3"/>
+        <v>1493.3018867924527</v>
       </c>
       <c r="K13" s="4">
-        <f>J13/H13</f>
-        <v>788.36477987421392</v>
+        <f t="shared" si="4"/>
+        <v>497.76729559748424</v>
       </c>
       <c r="L13" s="1">
         <v>5000</v>
@@ -1227,42 +1243,42 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="1">
-        <v>849</v>
+        <v>799</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="5">
-        <f>IF(D14="Y",IF(H14&gt;=3,C14*H14*0.7,IF(H14&gt;=2,C14*H14*0.8,C14*H14)),C14*H14)</f>
-        <v>1782.8999999999999</v>
+        <f t="shared" ref="E14" si="5">IF(D14="Y",IF(H14&gt;=3,C14*H14*0.7,IF(H14&gt;=2,C14*H14*0.8,C14*H14)),C14*H14)</f>
+        <v>2237.1999999999998</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="5">
-        <f>IF(F14="Y",IF(E14&gt;=2000,E14-400,IF(E14&gt;=1400,E14-200,IF(E14&gt;=1100,E14-120,IF(E14&gt;=800,E14-70,IF(E14&gt;=500,E14-40,E14))))),E14)</f>
-        <v>1582.8999999999999</v>
+        <f t="shared" ref="G14" si="6">IF(F14="Y",IF(E14&gt;=2000,E14-400,IF(E14&gt;=1400,E14-200,IF(E14&gt;=1100,E14-120,IF(E14&gt;=800,E14-70,IF(E14&gt;=500,E14-40,E14))))),E14)</f>
+        <v>1837.1999999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
-        <f>$L$2/$M$2</f>
+        <f t="shared" si="2"/>
         <v>0.94339622641509435</v>
       </c>
       <c r="J14" s="3">
-        <f>G14*I14</f>
-        <v>1493.3018867924527</v>
+        <f t="shared" ref="J14" si="7">G14*I14</f>
+        <v>1733.2075471698113</v>
       </c>
       <c r="K14" s="4">
-        <f>J14/H14</f>
-        <v>497.76729559748424</v>
+        <f t="shared" ref="K14" si="8">J14/H14</f>
+        <v>433.30188679245282</v>
       </c>
       <c r="L14" s="1">
         <v>5000</v>
@@ -1275,20 +1291,102 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>799</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15" si="9">IF(D15="Y",IF(H15&gt;=3,C15*H15*0.7,IF(H15&gt;=2,C15*H15*0.8,C15*H15)),C15*H15)</f>
+        <v>2237.1999999999998</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" ref="G15" si="10">IF(F15="Y",IF(E15&gt;=2000,E15-400,IF(E15&gt;=1400,E15-200,IF(E15&gt;=1100,E15-120,IF(E15&gt;=800,E15-70,IF(E15&gt;=500,E15-40,E15))))),E15)</f>
+        <v>1837.1999999999998</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" ref="J15" si="11">G15*I15</f>
+        <v>1733.2075471698113</v>
+      </c>
+      <c r="K15" s="4">
+        <f t="shared" ref="K15" si="12">J15/H15</f>
+        <v>433.30188679245282</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5300</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1">
+        <v>799</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" ref="E16" si="13">IF(D16="Y",IF(H16&gt;=3,C16*H16*0.7,IF(H16&gt;=2,C16*H16*0.8,C16*H16)),C16*H16)</f>
+        <v>2237.1999999999998</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" ref="G16" si="14">IF(F16="Y",IF(E16&gt;=2000,E16-400,IF(E16&gt;=1400,E16-200,IF(E16&gt;=1100,E16-120,IF(E16&gt;=800,E16-70,IF(E16&gt;=500,E16-40,E16))))),E16)</f>
+        <v>1837.1999999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>4</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94339622641509435</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" ref="J16" si="15">G16*I16</f>
+        <v>1733.2075471698113</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16" si="16">J16/H16</f>
+        <v>433.30188679245282</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5300</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="5:11">
       <c r="E17" s="5"/>
@@ -1954,21 +2052,13 @@
       <c r="J99" s="3"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" spans="5:11">
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H16">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D14 F2:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F16 D2:D16">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
